--- a/Inference/inference_eval/src/output.xlsx
+++ b/Inference/inference_eval/src/output.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AllData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Raw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ByClass" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,13 +510,6 @@
       </c>
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Lane Marking</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
@@ -578,21 +573,6 @@
           <t>Tf</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>IoU</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Ti</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>Tf</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -618,10 +598,10 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="G4" t="n">
-        <v>1688694554.221799</v>
+        <v>1688722015.907433</v>
       </c>
       <c r="H4" t="n">
-        <v>1688694554.238252</v>
+        <v>1688722015.923287</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -629,9 +609,6 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -650,17 +627,14 @@
         <v>0.9400904421884516</v>
       </c>
       <c r="J5" t="n">
-        <v>1688694554.221799</v>
+        <v>1688722015.907433</v>
       </c>
       <c r="K5" t="n">
-        <v>1688694554.238252</v>
+        <v>1688722015.923287</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -678,17 +652,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="L6" t="n">
         <v>0.2057082361075102</v>
       </c>
-      <c r="P6" t="n">
-        <v>1688694554.221799</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1688694554.238252</v>
+      <c r="M6" t="n">
+        <v>1688722015.907433</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1688722015.923287</v>
       </c>
     </row>
     <row r="7">
@@ -715,10 +686,10 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1688694554.346534</v>
+        <v>1688722016.033151</v>
       </c>
       <c r="H7" t="n">
-        <v>1688694554.364338</v>
+        <v>1688722016.055212</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -726,9 +697,6 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -747,17 +715,14 @@
         <v>0.8595293404706595</v>
       </c>
       <c r="J8" t="n">
-        <v>1688694554.346534</v>
+        <v>1688722016.033151</v>
       </c>
       <c r="K8" t="n">
-        <v>1688694554.364338</v>
+        <v>1688722016.055212</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -775,17 +740,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
+      <c r="L9" t="n">
         <v>0.216801733130065</v>
       </c>
-      <c r="P9" t="n">
-        <v>1688694554.346534</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1688694554.364338</v>
+      <c r="M9" t="n">
+        <v>1688722016.033151</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1688722016.055212</v>
       </c>
     </row>
     <row r="10">
@@ -812,10 +774,10 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="G10" t="n">
-        <v>1688694554.468563</v>
+        <v>1688722016.155502</v>
       </c>
       <c r="H10" t="n">
-        <v>1688694554.486019</v>
+        <v>1688722016.176237</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -823,9 +785,6 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -844,17 +803,14 @@
         <v>0.9114703119432477</v>
       </c>
       <c r="J11" t="n">
-        <v>1688694554.468563</v>
+        <v>1688722016.155502</v>
       </c>
       <c r="K11" t="n">
-        <v>1688694554.486019</v>
+        <v>1688722016.176237</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -872,17 +828,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="L12" t="n">
         <v>0.1978546250151939</v>
       </c>
-      <c r="P12" t="n">
-        <v>1688694554.468563</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1688694554.486019</v>
+      <c r="M12" t="n">
+        <v>1688722016.155502</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1688722016.176237</v>
       </c>
     </row>
     <row r="13">
@@ -909,10 +862,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="G13" t="n">
-        <v>1688694554.592347</v>
+        <v>1688722016.278177</v>
       </c>
       <c r="H13" t="n">
-        <v>1688694554.610199</v>
+        <v>1688722016.29805</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -920,9 +873,6 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -941,17 +891,14 @@
         <v>0.8909432883100884</v>
       </c>
       <c r="J14" t="n">
-        <v>1688694554.592347</v>
+        <v>1688722016.278177</v>
       </c>
       <c r="K14" t="n">
-        <v>1688694554.610199</v>
+        <v>1688722016.29805</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -969,30 +916,1189 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="L15" t="n">
         <v>0.179819471308833</v>
       </c>
-      <c r="P15" t="n">
-        <v>1688694554.592347</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1688694554.610199</v>
+      <c r="M15" t="n">
+        <v>1688722016.278177</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1688722016.29805</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>b1ca2e5d-84cf9134.jpg</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1688722016.40222</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1688722016.422217</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.8339053872556335</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1688722016.40222</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1688722016.422217</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0.1432603766600342</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1688722016.40222</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1688722016.422217</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>b1ca8418-84a133a0.jpg</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1688722016.524419</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1688722016.544982</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.8606459219956153</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1688722016.524419</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1688722016.544982</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.07338275420761596</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1688722016.524419</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1688722016.544982</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>b1cac6a7-04e33135.jpg</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1688722016.649443</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1688722016.668204</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0.9153979396480992</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1688722016.649443</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1688722016.668204</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0.08131655372700872</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1688722016.649443</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1688722016.668204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>b1cd1e94-26dd524f.jpg</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1688722016.770969</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1688722016.789074</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0.9386613551349147</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1688722016.770969</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1688722016.789074</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>0.2150068982817007</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1688722016.770969</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1688722016.789074</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>b1cd1e94-549d0bfe.jpg</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1688722016.896055</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1688722016.914007</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0.7681517169894619</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1688722016.896055</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1688722016.914007</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.1235273614499826</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1688722016.896055</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1688722016.914007</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>b1ceb32e-3f481b43.jpg</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1688722017.024913</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1688722017.046202</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0.1078092205254397</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1688722017.024913</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1688722017.046202</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.07822757111597374</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1688722017.024913</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1688722017.046202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>b1ceb32e-51852abe.jpg</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1688722017.155929</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1688722017.173802</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.8905826209359013</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1688722017.155929</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1688722017.173802</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0.2055273625017144</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1688722017.155929</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1688722017.173802</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>b1ceb32e-813f84b2.jpg</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1688722017.278634</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1688722017.299462</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0.9035560837370875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1688722017.278634</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1688722017.299462</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0.155118668083599</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1688722017.278634</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1688722017.299462</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>b1ceb32e-a106591d.jpg</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1688722017.400977</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1688722017.418155</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0.8776035765054905</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1688722017.400977</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1688722017.418155</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1688722017.400977</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1688722017.418155</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>b1cebfb7-284f5117.jpg</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1688722017.514241</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1688722017.532</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0.8905472382867731</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1688722017.514241</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1688722017.532</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>0.2022498803255146</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1688722017.514241</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1688722017.532</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>b1d0091f-75824d0d.jpg</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1688722017.626831</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1688722017.643379</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0.7668189500929966</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1688722017.626831</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1688722017.643379</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>0.1970610022222667</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1688722017.626831</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1688722017.643379</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Object detection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Drivable area</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lane marking</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>AP@50</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>AP@75</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>IoU</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>IoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4595877290055919</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5383468870310976</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.1516574996091342</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Drivable</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0.8237142262679907</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Object detection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Drivable area</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lane marking</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>mAP@50</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>mAP@75</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>mIoU</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>mIoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0.4595877290055919</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5383468870310976</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8237142262679907</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1516574996091342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>